--- a/TelegramBot/reports/orders.xlsx
+++ b/TelegramBot/reports/orders.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6 +436,82 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>c9d5c0d6-2849-4ea6-8e71-2a386c190d9c</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>663095878</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10019.94</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Футболка с принтом x1; MacBook Pro x5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2f1d5f43-befa-44b0-876c-5e0afdad8102</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>663095878</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9999.950000000001</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>MacBook Pro x5</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
